--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value626.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value626.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.231228928493708</v>
+        <v>1.256905436515808</v>
       </c>
       <c r="B1">
-        <v>2.357024682963722</v>
+        <v>2.686847925186157</v>
       </c>
       <c r="C1">
-        <v>3.979216945390652</v>
+        <v>5.043686389923096</v>
       </c>
       <c r="D1">
-        <v>2.929151966171016</v>
+        <v>2.061823129653931</v>
       </c>
       <c r="E1">
-        <v>1.083818682991039</v>
+        <v>1.038701772689819</v>
       </c>
     </row>
   </sheetData>
